--- a/meas/Measurements.xlsx
+++ b/meas/Measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SAQ\meas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\RF_VLF_SAQ_Reception\meas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32D305D-B65E-47DD-B4DE-129AC09C1475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E98CD0-E5A0-4A28-A866-357277C75A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CB450F67-C83A-4305-ACBC-60FD295E7ED8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>in</t>
   </si>
@@ -152,6 +152,18 @@
   <si>
     <t>A[dB]</t>
   </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>kHz</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +189,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +217,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -210,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -235,6 +267,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -4694,8 +4729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C593B08E-F7FE-4A30-9997-7931476CFA36}">
   <dimension ref="B2:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M21" workbookViewId="0">
-      <selection activeCell="T49" sqref="T49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5470,6 +5505,15 @@
       </c>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="R38" s="3">
         <v>80</v>
       </c>
@@ -5496,6 +5540,15 @@
       </c>
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="15">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="R39" s="3">
         <v>90</v>
       </c>
@@ -5523,6 +5576,15 @@
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="15">
+        <v>10.35</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="R40" s="3">
         <v>100</v>
       </c>
@@ -5550,6 +5612,16 @@
       </c>
     </row>
     <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="16">
+        <f>1/(2*PI()*SQRT(C40*10^-3*(C38+C39)*10^-9))</f>
+        <v>9002.1549766688659</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="X42" t="s">
         <v>32</v>
       </c>
